--- a/Accuracy.xlsx
+++ b/Accuracy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MusicBox\Documents\MComp\CS4347 Sound and Music Computing\1 Group Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{677341F8-64CA-4C65-B61E-7CB0634C1B1B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A6B0766C-CD59-4481-82D1-F1FD277FF39C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{1423648F-3CFE-4CA9-B8F7-0D3F0EB5DCF6}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
   <si>
     <t>[SVM]</t>
   </si>
@@ -220,9 +220,6 @@
     <t>346-359</t>
   </si>
   <si>
-    <t>360-383</t>
-  </si>
-  <si>
     <t>MFCC (Mean, Std, Skew, Kurt) + DMFCC (M, Std, Skew, Kurt) + Contrast (M, Std, Skew, Kurt) + Flatness (M, Std)</t>
   </si>
   <si>
@@ -239,6 +236,45 @@
   </si>
   <si>
     <t>MFCC (Mean, Std, Skew, Kurt) + DMFCC (M, Std, Skew, Kurt) + Contrast (M, Std, Skew, Kurt) + ZCR, RMS (M, Std, Skew, Kurt) + Flatness (M, Std, Skew, Kurt)</t>
+  </si>
+  <si>
+    <t>246-dimensional vector</t>
+  </si>
+  <si>
+    <t>MFCC (Mean, Std, Skew, Kurt) + DMFCC (M, Std, Skew, Kurt) + Contrast (M, Std, Skew, Kurt) + ZCR, RMS (M, Std, Skew, Kurt) + Flatness (M, Std) + Delta-Contrast (M, Std)</t>
+  </si>
+  <si>
+    <t>MFCC (Mean, Std, Skew, Kurt) + DMFCC (M, Std, Skew, Kurt) + Contrast (M, Std, Skew, Kurt) + ZCR, RMS (M, Std, Skew, Kurt) + Flatness (M, Std) + Delta-Contrast (M, Std, Skew, Kurt)</t>
+  </si>
+  <si>
+    <t>MFCC (Mean, Std, Skew, Kurt) + DMFCC (M, Std, Skew, Kurt) + Contrast (M, Std, Skew, Kurt) + ZCR, RMS (M, Std, Skew, Kurt) + Flatness (M, Std) + D-Contrast (M, Std, Skew, Kurt) + DD-Contrast (M, Std)</t>
+  </si>
+  <si>
+    <t>D-Contrast mean, std</t>
+  </si>
+  <si>
+    <t>D-Contrast skew, kurt</t>
+  </si>
+  <si>
+    <t>DD-Contrast mean, std</t>
+  </si>
+  <si>
+    <t>DD-Contrast skew, kurt</t>
+  </si>
+  <si>
+    <t>360-373</t>
+  </si>
+  <si>
+    <t>374-387</t>
+  </si>
+  <si>
+    <t>388-401</t>
+  </si>
+  <si>
+    <t>402-415</t>
+  </si>
+  <si>
+    <t>416-439</t>
   </si>
 </sst>
 </file>
@@ -639,16 +675,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587B4633-4214-47D7-BB26-CC0EB7CFDFC7}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="5"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -901,9 +937,41 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
         <v>34</v>
       </c>
     </row>
@@ -914,10 +982,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82393FC6-8699-440B-8406-BE4ACC753E3E}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1593,22 +1661,22 @@
         <v>59</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="G34" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="I34" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1870,6 +1938,148 @@
       </c>
       <c r="I43" s="7">
         <v>0.5423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="B45" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.59109999999999996</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.59330000000000005</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.59330000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.56830000000000003</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.57279999999999998</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.57279999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.54369999999999996</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.52810000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.5736</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.58240000000000003</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.58489999999999998</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.60150000000000003</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.59560000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.59650000000000003</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.59540000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.54310000000000003</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.54530000000000001</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.54430000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="7">
+        <v>0.56159999999999999</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0.56259999999999999</v>
       </c>
     </row>
   </sheetData>
